--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingler/PycharmProjects/platform20200916/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\pythonProject\platform20200916\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13436FF8-9ED6-FB49-9C3F-6674197F7113}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A4AD2-8955-43A0-87BC-B2469321AD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="960" windowWidth="28060" windowHeight="15700" xr2:uid="{8B1FF284-616D-DC48-933F-09295ED10C54}"/>
+    <workbookView xWindow="1452" yWindow="85" windowWidth="20330" windowHeight="12403" activeTab="3" xr2:uid="{8B1FF284-616D-DC48-933F-09295ED10C54}"/>
   </bookViews>
   <sheets>
-    <sheet name="custVend" sheetId="1" r:id="rId1"/>
+    <sheet name="custVend" sheetId="2" r:id="rId1"/>
+    <sheet name="FA" sheetId="1" r:id="rId2"/>
+    <sheet name="Invoice" sheetId="3" r:id="rId3"/>
+    <sheet name="Other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,12 +89,20 @@
     <t>1M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>本脚本运行在windows10的python3.7+pytest环境下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 写库只统计写测试环境的sql server数据库的invoice_header表和invoice_line表的总和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -445,20 +456,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7715F8A-7049-466D-A065-C018E6F65F10}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <cols>
+    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="D2">
+        <v>44.381</v>
+      </c>
+      <c r="E2">
+        <v>49.091999999999999</v>
+      </c>
+      <c r="F2">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="D3">
+        <v>46.947000000000003</v>
+      </c>
+      <c r="E3">
+        <v>52.018999999999998</v>
+      </c>
+      <c r="F3">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D4">
+        <v>43.47</v>
+      </c>
+      <c r="E4">
+        <v>48.3</v>
+      </c>
+      <c r="F4">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D5">
+        <v>46.296999999999997</v>
+      </c>
+      <c r="E5">
+        <v>51.131</v>
+      </c>
+      <c r="F5">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D6">
+        <v>44.360999999999997</v>
+      </c>
+      <c r="E6">
+        <v>49.247999999999998</v>
+      </c>
+      <c r="F6">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3.27</v>
+      </c>
+      <c r="D7">
+        <v>187.333</v>
+      </c>
+      <c r="E7">
+        <v>204.74799999999999</v>
+      </c>
+      <c r="F7">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2.8780000000000001</v>
+      </c>
+      <c r="D8">
+        <v>196.43100000000001</v>
+      </c>
+      <c r="E8">
+        <v>212.917</v>
+      </c>
+      <c r="F8">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="D9">
+        <v>186.81399999999999</v>
+      </c>
+      <c r="E9">
+        <v>206.98400000000001</v>
+      </c>
+      <c r="F9">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="D10">
+        <v>190.68700000000001</v>
+      </c>
+      <c r="E10">
+        <v>207.01900000000001</v>
+      </c>
+      <c r="F10">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2.919</v>
+      </c>
+      <c r="D11">
+        <v>194.52500000000001</v>
+      </c>
+      <c r="E11">
+        <v>211.43299999999999</v>
+      </c>
+      <c r="F11">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6.1870000000000003</v>
+      </c>
+      <c r="D12">
+        <v>376.81900000000002</v>
+      </c>
+      <c r="E12">
+        <v>409.61799999999999</v>
+      </c>
+      <c r="F12">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>5.391</v>
+      </c>
+      <c r="D13">
+        <v>374.01600000000002</v>
+      </c>
+      <c r="E13">
+        <v>406.11500000000001</v>
+      </c>
+      <c r="F13">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="D14">
+        <v>391.95699999999999</v>
+      </c>
+      <c r="E14">
+        <v>425.08</v>
+      </c>
+      <c r="F14">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>5.3479999999999999</v>
+      </c>
+      <c r="D15">
+        <v>382.05399999999997</v>
+      </c>
+      <c r="E15">
+        <v>414.37200000000001</v>
+      </c>
+      <c r="F15">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="D16">
+        <v>382.721</v>
+      </c>
+      <c r="E16">
+        <v>416.637</v>
+      </c>
+      <c r="F16">
+        <v>12022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:E21" si="0">AVERAGE(D2:D6)</f>
+        <v>45.091200000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>49.957999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C7:C11)</f>
+        <v>2.9568000000000003</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D7:D11)</f>
+        <v>191.15799999999999</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E7:E11)</f>
+        <v>208.62020000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C12:C16)</f>
+        <v>5.7685999999999993</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="1">AVERAGE(D12:D16)</f>
+        <v>381.51339999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>414.36440000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9CF6D-0DEB-8B4B-A7C1-8259F159551E}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
   <cols>
-    <col min="3" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.25" customWidth="1"/>
+    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,107 +904,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>0.88400000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D2">
-        <v>44.381</v>
+        <v>35.844000000000001</v>
       </c>
       <c r="E2">
-        <v>49.091999999999999</v>
+        <v>40.284999999999997</v>
       </c>
       <c r="F2">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0.84199999999999997</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D3">
-        <v>46.947000000000003</v>
+        <v>36.82</v>
       </c>
       <c r="E3">
-        <v>52.018999999999998</v>
+        <v>41.155000000000001</v>
       </c>
       <c r="F3">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.82699999999999996</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D4">
-        <v>43.47</v>
+        <v>38.377000000000002</v>
       </c>
       <c r="E4">
-        <v>48.3</v>
+        <v>42.848999999999997</v>
       </c>
       <c r="F4">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.85399999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D5">
-        <v>46.296999999999997</v>
+        <v>30.401</v>
       </c>
       <c r="E5">
-        <v>51.131</v>
+        <v>34.767000000000003</v>
       </c>
       <c r="F5">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.94199999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="D6">
-        <v>44.360999999999997</v>
+        <v>33.936</v>
       </c>
       <c r="E6">
-        <v>49.247999999999998</v>
+        <v>38.210999999999999</v>
       </c>
       <c r="F6">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -586,19 +1012,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>3.27</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="D7">
-        <v>187.333</v>
+        <v>192.303</v>
       </c>
       <c r="E7">
-        <v>204.74799999999999</v>
+        <v>211.536</v>
       </c>
       <c r="F7">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -606,19 +1032,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.8780000000000001</v>
+        <v>1.925</v>
       </c>
       <c r="D8">
-        <v>196.43100000000001</v>
+        <v>198.26900000000001</v>
       </c>
       <c r="E8">
-        <v>212.917</v>
+        <v>217.84399999999999</v>
       </c>
       <c r="F8">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -626,19 +1052,19 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>2.8679999999999999</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D9">
-        <v>186.81399999999999</v>
+        <v>160.99299999999999</v>
       </c>
       <c r="E9">
-        <v>206.98400000000001</v>
+        <v>180.56</v>
       </c>
       <c r="F9">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -646,19 +1072,19 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>2.8490000000000002</v>
+        <v>1.946</v>
       </c>
       <c r="D10">
-        <v>190.68700000000001</v>
+        <v>165.47800000000001</v>
       </c>
       <c r="E10">
-        <v>207.01900000000001</v>
+        <v>186.596</v>
       </c>
       <c r="F10">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -666,19 +1092,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>2.919</v>
+        <v>1.98</v>
       </c>
       <c r="D11">
-        <v>194.52500000000001</v>
+        <v>172.614</v>
       </c>
       <c r="E11">
-        <v>211.43299999999999</v>
+        <v>193.428</v>
       </c>
       <c r="F11">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -686,19 +1112,19 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>6.1870000000000003</v>
+        <v>4.9740000000000002</v>
       </c>
       <c r="D12">
-        <v>376.81900000000002</v>
+        <v>315.58</v>
       </c>
       <c r="E12">
-        <v>409.61799999999999</v>
+        <v>355.83199999999999</v>
       </c>
       <c r="F12">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -706,19 +1132,19 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5.391</v>
+        <v>5.0679999999999996</v>
       </c>
       <c r="D13">
-        <v>374.01600000000002</v>
+        <v>359.45100000000002</v>
       </c>
       <c r="E13">
-        <v>406.11500000000001</v>
+        <v>399.077</v>
       </c>
       <c r="F13">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -726,19 +1152,19 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>5.8620000000000001</v>
+        <v>4.7140000000000004</v>
       </c>
       <c r="D14">
-        <v>391.95699999999999</v>
+        <v>316.67899999999997</v>
       </c>
       <c r="E14">
-        <v>425.08</v>
+        <v>356.96300000000002</v>
       </c>
       <c r="F14">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -746,19 +1172,19 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>5.3479999999999999</v>
+        <v>5.1050000000000004</v>
       </c>
       <c r="D15">
-        <v>382.05399999999997</v>
+        <v>342.42700000000002</v>
       </c>
       <c r="E15">
-        <v>414.37200000000001</v>
+        <v>382.17599999999999</v>
       </c>
       <c r="F15">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -766,39 +1192,39 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>6.0549999999999997</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="D16">
-        <v>382.721</v>
+        <v>348.86</v>
       </c>
       <c r="E16">
-        <v>416.637</v>
+        <v>387.221</v>
       </c>
       <c r="F16">
-        <v>12022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12804</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="H17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="H18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -807,53 +1233,596 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.86980000000000002</v>
+        <v>0.3226</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:E21" si="0">AVERAGE(D2:D6)</f>
-        <v>45.091200000000001</v>
+        <f>AVERAGE(D2:D6)</f>
+        <v>35.075600000000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>49.957999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <f>AVERAGE(E2:E6)</f>
+        <v>39.453400000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22">
         <f>AVERAGE(C7:C11)</f>
-        <v>2.9568000000000003</v>
+        <v>1.9883999999999999</v>
       </c>
       <c r="D22">
         <f>AVERAGE(D7:D11)</f>
-        <v>191.15799999999999</v>
+        <v>177.93140000000002</v>
       </c>
       <c r="E22">
         <f>AVERAGE(E7:E11)</f>
-        <v>208.62020000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197.99280000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
         <f>AVERAGE(C12:C16)</f>
-        <v>5.7685999999999993</v>
+        <v>4.9792000000000005</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:E23" si="1">AVERAGE(D12:D16)</f>
-        <v>381.51339999999999</v>
+        <f t="shared" ref="D23:E23" si="0">AVERAGE(D12:D16)</f>
+        <v>336.59939999999995</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>414.36440000000005</v>
+        <f t="shared" si="0"/>
+        <v>376.25380000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9754DE7C-233F-453C-B6EA-89ED4DE2ED06}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <cols>
+    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>0.315</v>
+      </c>
+      <c r="D2">
+        <v>25.52</v>
+      </c>
+      <c r="E2">
+        <v>26.693999999999999</v>
+      </c>
+      <c r="F2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="D7">
+        <v>122.312</v>
+      </c>
+      <c r="E7">
+        <v>126.271</v>
+      </c>
+      <c r="F7">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="D12">
+        <v>246.976</v>
+      </c>
+      <c r="E12">
+        <v>255.393</v>
+      </c>
+      <c r="F12">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.315</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(D2:D6)</f>
+        <v>25.52</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(E2:E6)</f>
+        <v>26.693999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C7:C11)</f>
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D7:D11)</f>
+        <v>122.312</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E7:E11)</f>
+        <v>126.271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C12:C16)</f>
+        <v>4.9690000000000003</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="0">AVERAGE(D12:D16)</f>
+        <v>246.976</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>255.393</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4ABB1F-22A4-4ABD-BC0B-588E4E0AE0AE}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <cols>
+    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D2">
+        <v>36.542999999999999</v>
+      </c>
+      <c r="E2">
+        <v>40.515999999999998</v>
+      </c>
+      <c r="F2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="D7">
+        <v>167.28800000000001</v>
+      </c>
+      <c r="E7">
+        <v>184.858</v>
+      </c>
+      <c r="F7">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="D12">
+        <v>340.24900000000002</v>
+      </c>
+      <c r="E12">
+        <v>375.14299999999997</v>
+      </c>
+      <c r="F12">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(D2:D6)</f>
+        <v>36.542999999999999</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(E2:E6)</f>
+        <v>40.515999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C7:C11)</f>
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D7:D11)</f>
+        <v>167.28800000000001</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E7:E11)</f>
+        <v>184.858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE(C12:C16)</f>
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="0">AVERAGE(D12:D16)</f>
+        <v>340.24900000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>375.14299999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\pythonProject\platform20200916\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shingler/PycharmProjects/platform20200916/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A4AD2-8955-43A0-87BC-B2469321AD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F855C03E-1255-734D-B0A1-B899414B405C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="85" windowWidth="20330" windowHeight="12403" activeTab="3" xr2:uid="{8B1FF284-616D-DC48-933F-09295ED10C54}"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="24880" windowHeight="14600" xr2:uid="{8B1FF284-616D-DC48-933F-09295ED10C54}"/>
   </bookViews>
   <sheets>
     <sheet name="custVend" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Invoice" sheetId="3" r:id="rId3"/>
     <sheet name="Other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,7 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 写库只统计写测试环境的sql server数据库的invoice_header表和invoice_line表的总和。</t>
+    <t>为MacBook Pro本地环境运行，数据库为本地MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 写库只统计写测试环境的sql server数据库的Invoice_Header和Invoice_Line表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 写库只统计写测试环境的sql server数据库的other表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -116,13 +128,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,8 +165,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,19 +489,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7715F8A-7049-466D-A065-C018E6F65F10}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+    <col min="3" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,7 +541,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,7 +561,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -549,7 +581,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -569,7 +601,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -589,7 +621,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -609,7 +641,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -629,7 +661,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -649,7 +681,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -669,7 +701,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -689,7 +721,7 @@
         <v>6008</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -709,7 +741,7 @@
         <v>12022</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -729,7 +761,7 @@
         <v>12022</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -749,7 +781,7 @@
         <v>12022</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -769,7 +801,7 @@
         <v>12022</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -789,27 +821,27 @@
         <v>12022</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -829,7 +861,7 @@
         <v>49.957999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -846,7 +878,7 @@
         <v>208.62020000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -861,6 +893,56 @@
       <c r="E23">
         <f t="shared" si="1"/>
         <v>414.36440000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.9390000000000001</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>26.704999999999998</v>
+      </c>
+      <c r="E26" s="1">
+        <v>29.111999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.028</v>
+      </c>
+      <c r="D27" s="1">
+        <v>51.381999999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>55.902000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -872,19 +954,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A9CF6D-0DEB-8B4B-A7C1-8259F159551E}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A25" sqref="A25:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+    <col min="3" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -924,7 +1006,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -944,7 +1026,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -964,7 +1046,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -984,7 +1066,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1004,7 +1086,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1024,7 +1106,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1044,7 +1126,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1064,7 +1146,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1084,7 +1166,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1104,7 +1186,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1124,7 +1206,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1144,7 +1226,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1164,7 +1246,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1184,7 +1266,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1204,27 +1286,27 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1326,7 @@
         <v>39.453400000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1343,7 @@
         <v>197.99280000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -1276,6 +1358,56 @@
       <c r="E23">
         <f t="shared" si="0"/>
         <v>376.25380000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.3769999999999998</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6.2919999999999998</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.4430000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>27.92</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.298999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>54.356000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>58.75</v>
       </c>
     </row>
   </sheetData>
@@ -1290,16 +1422,16 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+    <col min="3" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1339,15 +1471,30 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" s="1">
+        <v>0.312</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.2270000000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.9459999999999997</v>
+      </c>
+      <c r="F3" s="1">
+        <v>468</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1355,7 +1502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1363,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1371,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1391,15 +1538,27 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="1">
+        <v>2.222</v>
+      </c>
+      <c r="D8" s="1">
+        <v>33.088000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>36.331000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1407,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1415,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1423,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1443,15 +1602,27 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="1">
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>59.375999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <v>67.926000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1459,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1467,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1475,27 +1646,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1504,49 +1675,49 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.315</v>
+        <v>0.3135</v>
       </c>
       <c r="D21">
         <f>AVERAGE(D2:D6)</f>
-        <v>25.52</v>
+        <v>15.3735</v>
       </c>
       <c r="E21">
         <f>AVERAGE(E2:E6)</f>
-        <v>26.693999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22">
         <f>AVERAGE(C7:C11)</f>
-        <v>2.0659999999999998</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="D22">
         <f>AVERAGE(D7:D11)</f>
-        <v>122.312</v>
+        <v>77.7</v>
       </c>
       <c r="E22">
         <f>AVERAGE(E7:E11)</f>
-        <v>126.271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>81.301000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
         <f>AVERAGE(C12:C16)</f>
-        <v>4.9690000000000003</v>
+        <v>6.1970000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:E23" si="0">AVERAGE(D12:D16)</f>
-        <v>246.976</v>
+        <v>153.17599999999999</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>255.393</v>
+        <v>161.65950000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1560,17 +1731,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4ABB1F-22A4-4ABD-BC0B-588E4E0AE0AE}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="19.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.23046875" customWidth="1"/>
+    <col min="3" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1610,15 +1781,30 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.3529999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.0650000000000004</v>
+      </c>
+      <c r="F3" s="1">
+        <v>412</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1626,7 +1812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1634,7 +1820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1642,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1662,15 +1848,27 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.867</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19.631</v>
+      </c>
+      <c r="E8" s="1">
+        <v>22.396999999999998</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1678,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1686,7 +1884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1694,7 +1892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1714,15 +1912,27 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39.856000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45.191000000000003</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1730,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1738,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1746,27 +1956,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1775,49 +1985,49 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C2:C6)</f>
-        <v>0.32600000000000001</v>
+        <v>0.3175</v>
       </c>
       <c r="D21">
         <f>AVERAGE(D2:D6)</f>
-        <v>36.542999999999999</v>
+        <v>20.448</v>
       </c>
       <c r="E21">
         <f>AVERAGE(E2:E6)</f>
-        <v>40.515999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22.790499999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22">
         <f>AVERAGE(C7:C11)</f>
-        <v>1.9650000000000001</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="D22">
         <f>AVERAGE(D7:D11)</f>
-        <v>167.28800000000001</v>
+        <v>93.459500000000006</v>
       </c>
       <c r="E22">
         <f>AVERAGE(E7:E11)</f>
-        <v>184.858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>103.6275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23">
         <f>AVERAGE(C12:C16)</f>
-        <v>5.0730000000000004</v>
+        <v>4.5510000000000002</v>
       </c>
       <c r="D23">
         <f t="shared" ref="D23:E23" si="0">AVERAGE(D12:D16)</f>
-        <v>340.24900000000002</v>
+        <v>190.05250000000001</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>375.14299999999997</v>
+        <v>210.16699999999997</v>
       </c>
     </row>
   </sheetData>
